--- a/public/author_list_templated.xlsx
+++ b/public/author_list_templated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_v7.4\htdocs\ucsl_library\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77E0876-003A-4666-8D0C-1F62504AE410}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26955F8E-4136-4050-B2BF-F291DEFDAF8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B94540DE-DA0F-42F5-B4E3-A283052BE629}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>categories_id</t>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -382,22 +379,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DDF01C-777D-41FE-8C24-8F71CC4C91B4}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
